--- a/Tests/Test.xlsx
+++ b/Tests/Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F2217B-D622-456F-A5F9-1FD26AC9C851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFEE3AC-BAD2-4DD5-9288-80A82EE25590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48C702AB-0BFC-4095-97BA-AACF7AA67792}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ib</t>
   </si>
@@ -62,7 +62,25 @@
     <t>e1c://filev/o/Tests/ib</t>
   </si>
   <si>
-    <t>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585fa</t>
+    <t>Тест ПРЕДСТАВЛЕНИЕССЫЛКИ</t>
+  </si>
+  <si>
+    <t>Тест РЕКВИЗИТССЫЛКИ</t>
+  </si>
+  <si>
+    <t>Ссылка</t>
+  </si>
+  <si>
+    <t>Тест YQ одно значение</t>
+  </si>
+  <si>
+    <t>Тест YQ массив значений</t>
+  </si>
+  <si>
+    <t>Тест РЕКВИЗИТССЫЛКИ перечисление</t>
+  </si>
+  <si>
+    <t>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Контрагенты?ref=979a50ebf628462e11eedfb52fb803ac</t>
   </si>
 </sst>
 </file>
@@ -437,22 +455,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBC8037-E247-43C8-8AED-C87ED33F4913}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -460,120 +475,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="str" cm="1">
-        <f t="array" ref="C3">[1]!ПРЕДСТАВЛЕНИЕССЫЛКИ(B3)</f>
+      <c r="C5" t="str" cm="1">
+        <f t="array" ref="C5">[1]!ПРЕДСТАВЛЕНИЕССЫЛКИ(C3)</f>
+        <v>Контрагент юр. лицо</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="str" cm="1">
+        <f t="array" ref="C7">[1]!РЕКВИЗИТССЫЛКИ(C3,"Код")</f>
+        <v>000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="str" cm="1">
+        <f t="array" ref="C9">[1]!РЕКВИЗИТССЫЛКИ(C3,"ЮрФизЛицо")</f>
+        <v>e1c://filev/o/Tests/ib#e1cib/enum/ЮрФизЛицо.ЮрЛицо</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="str" cm="1">
+        <f t="array" ref="C11">[1]!YQ(C2,"выбрать первые 1 спр.наименование из справочник.пользователи как спр")</f>
+        <v>Пользователь1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="str" cm="1">
+        <f t="array" ref="C13:E17">[1]!YQ(C2,"выбрать первые 10 спр.наименование, спр.код, спр.ссылка из справочник.пользователи как спр")</f>
+        <v>Пользователь1</v>
+      </c>
+      <c r="D13" t="str">
+        <v>000000001</v>
+      </c>
+      <c r="E13" t="str">
+        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585f9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
         <v>Пользователь2</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="str" cm="1">
-        <f t="array" ref="B5:B9">[1]!YQ(C2,"выбрать первые 10 спр.ссылка из справочник.пользователи как спр")</f>
-        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585f9</v>
-      </c>
-      <c r="C5" t="str" cm="1">
-        <f t="array" ref="C5">[1]!ПРЕДСТАВЛЕНИЕССЫЛКИ(B5)</f>
-        <v>Пользователь1</v>
-      </c>
-      <c r="D5" t="str" cm="1">
-        <f t="array" ref="D5">[1]!РЕКВИЗИТССЫЛКИ(B5,"Код")</f>
-        <v>000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="str">
+      <c r="D14" t="str">
+        <v>000000002</v>
+      </c>
+      <c r="E14" t="str">
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585fa</v>
       </c>
-      <c r="C6" t="str" cm="1">
-        <f t="array" ref="C6">[1]!ПРЕДСТАВЛЕНИЕССЫЛКИ(B6)</f>
-        <v>Пользователь2</v>
-      </c>
-      <c r="D6" t="str" cm="1">
-        <f t="array" ref="D6">[1]!РЕКВИЗИТССЫЛКИ(B6,"Код")</f>
-        <v>000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="str">
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <v>Пользователь3</v>
+      </c>
+      <c r="D15" t="str">
+        <v>000000003</v>
+      </c>
+      <c r="E15" t="str">
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585fb</v>
       </c>
-      <c r="C7" t="str" cm="1">
-        <f t="array" ref="C7">[1]!ПРЕДСТАВЛЕНИЕССЫЛКИ(B7)</f>
-        <v>Пользователь3</v>
-      </c>
-      <c r="D7" t="str" cm="1">
-        <f t="array" ref="D7">[1]!РЕКВИЗИТССЫЛКИ(B7,"Код")</f>
-        <v>000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="str">
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <v>Пользователь4</v>
+      </c>
+      <c r="D16" t="str">
+        <v>000000004</v>
+      </c>
+      <c r="E16" t="str">
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585fc</v>
       </c>
-      <c r="C8" t="str" cm="1">
-        <f t="array" ref="C8">[1]!ПРЕДСТАВЛЕНИЕССЫЛКИ(B8)</f>
-        <v>Пользователь4</v>
-      </c>
-      <c r="D8" t="str" cm="1">
-        <f t="array" ref="D8">[1]!РЕКВИЗИТССЫЛКИ(B8,"Код")</f>
-        <v>000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="str">
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="str">
+        <v>Пользователь5</v>
+      </c>
+      <c r="D17" t="str">
+        <v>000000005</v>
+      </c>
+      <c r="E17" t="str">
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585fd</v>
-      </c>
-      <c r="C9" t="str" cm="1">
-        <f t="array" ref="C9">[1]!ПРЕДСТАВЛЕНИЕССЫЛКИ(B9)</f>
-        <v>Пользователь5</v>
-      </c>
-      <c r="D9" t="str" cm="1">
-        <f t="array" ref="D9">[1]!РЕКВИЗИТССЫЛКИ(B9,"Код")</f>
-        <v>000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="str" cm="1">
-        <f t="array" ref="B11:C12">[1]!YQ(C2,"выбрать первые 10 спр.ссылка, спр.ИНН из справочник.Контрагенты как спр")</f>
-        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Контрагенты?ref=979a50ebf628462e11eedfb52fb803ac</v>
-      </c>
-      <c r="C11" t="str">
-        <v>1234567890</v>
-      </c>
-      <c r="D11" t="str" cm="1">
-        <f t="array" ref="D11">[1]!ПРЕДСТАВЛЕНИЕССЫЛКИ(B11)</f>
-        <v>Контрагент юр. лицо</v>
-      </c>
-      <c r="E11" t="str" cm="1">
-        <f t="array" ref="E11">[1]!РЕКВИЗИТССЫЛКИ(B11,"ЮрФизЛицо")</f>
-        <v>e1c://filev/o/Tests/ib#e1cib/enum/ЮрФизЛицо.ЮрЛицо</v>
-      </c>
-      <c r="F11" t="str" cm="1">
-        <f t="array" ref="F11">[1]!ПРЕДСТАВЛЕНИЕССЫЛКИ(E11)</f>
-        <v>Юридическое лицо</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="str">
-        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Контрагенты?ref=979a50ebf628462e11eedfb52fb803ad</v>
-      </c>
-      <c r="C12" t="str">
-        <v>123456789012</v>
-      </c>
-      <c r="D12" t="str" cm="1">
-        <f t="array" ref="D12">[1]!ПРЕДСТАВЛЕНИЕССЫЛКИ(B12)</f>
-        <v>Контрагент физ. лицо</v>
-      </c>
-      <c r="E12" t="str" cm="1">
-        <f t="array" ref="E12">[1]!РЕКВИЗИТССЫЛКИ(B12,"ЮрФизЛицо")</f>
-        <v>e1c://filev/o/Tests/ib#e1cib/enum/ЮрФизЛицо.ФизЛицо</v>
-      </c>
-      <c r="F12" t="str" cm="1">
-        <f t="array" ref="F12">[1]!ПРЕДСТАВЛЕНИЕССЫЛКИ(E12)</f>
-        <v>Физическое лицо</v>
       </c>
     </row>
   </sheetData>

--- a/Tests/Test.xlsx
+++ b/Tests/Test.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFEE3AC-BAD2-4DD5-9288-80A82EE25590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48C702AB-0BFC-4095-97BA-AACF7AA67792}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,28 +30,6 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
@@ -86,8 +63,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,13 +114,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Лист1"/>
+      <sheetName val="YellowQuery"/>
     </sheetNames>
     <definedNames>
       <definedName name="YQ"/>
@@ -152,6 +127,7 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -200,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -252,7 +228,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -446,20 +422,20 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBC8037-E247-43C8-8AED-C87ED33F4913}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
@@ -467,7 +443,7 @@
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -475,7 +451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -483,47 +459,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="str" cm="1">
-        <f t="array" ref="C5">[1]!ПРЕДСТАВЛЕНИЕССЫЛКИ(C3)</f>
+      <c r="C5" t="str">
+        <f>[1]!ПРЕДСТАВЛЕНИЕССЫЛКИ(C3)</f>
         <v>Контрагент юр. лицо</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="str" cm="1">
-        <f t="array" ref="C7">[1]!РЕКВИЗИТССЫЛКИ(C3,"Код")</f>
+      <c r="C7" t="str">
+        <f>[1]!РЕКВИЗИТССЫЛКИ(C3,"Код")</f>
         <v>000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="str" cm="1">
-        <f t="array" ref="C9">[1]!РЕКВИЗИТССЫЛКИ(C3,"ЮрФизЛицо")</f>
+      <c r="C9" t="str">
+        <f>[1]!РЕКВИЗИТССЫЛКИ(C3,"ЮрФизЛицо")</f>
         <v>e1c://filev/o/Tests/ib#e1cib/enum/ЮрФизЛицо.ЮрЛицо</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="str" cm="1">
-        <f t="array" ref="C11">[1]!YQ(C2,"выбрать первые 1 спр.наименование из справочник.пользователи как спр")</f>
+      <c r="C11" t="str">
+        <f>[1]!YQ(C2,"выбрать первые 1 спр.наименование из справочник.пользователи как спр")</f>
         <v>Пользователь1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="str" cm="1">
+      <c r="C13" t="str">
         <f t="array" ref="C13:E17">[1]!YQ(C2,"выбрать первые 10 спр.наименование, спр.код, спр.ссылка из справочник.пользователи как спр")</f>
         <v>Пользователь1</v>
       </c>
@@ -534,7 +510,7 @@
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585f9</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5">
       <c r="C14" t="str">
         <v>Пользователь2</v>
       </c>
@@ -545,7 +521,7 @@
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585fa</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5">
       <c r="C15" t="str">
         <v>Пользователь3</v>
       </c>
@@ -556,7 +532,7 @@
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585fb</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5">
       <c r="C16" t="str">
         <v>Пользователь4</v>
       </c>
@@ -567,7 +543,7 @@
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585fc</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5">
       <c r="C17" t="str">
         <v>Пользователь5</v>
       </c>

--- a/Tests/Test.xlsx
+++ b/Tests/Test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0098D654-17DD-43E8-800A-6471FFF61BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +31,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
@@ -39,12 +62,6 @@
     <t>e1c://filev/o/Tests/ib</t>
   </si>
   <si>
-    <t>Тест ПРЕДСТАВЛЕНИЕССЫЛКИ</t>
-  </si>
-  <si>
-    <t>Тест РЕКВИЗИТССЫЛКИ</t>
-  </si>
-  <si>
     <t>Ссылка</t>
   </si>
   <si>
@@ -54,17 +71,23 @@
     <t>Тест YQ массив значений</t>
   </si>
   <si>
-    <t>Тест РЕКВИЗИТССЫЛКИ перечисление</t>
-  </si>
-  <si>
     <t>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Контрагенты?ref=979a50ebf628462e11eedfb52fb803ac</t>
+  </si>
+  <si>
+    <t>Тест REFP</t>
+  </si>
+  <si>
+    <t>Тест REFA</t>
+  </si>
+  <si>
+    <t>Тест REFA перечисление</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,20 +137,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Лист1"/>
-      <sheetName val="YellowQuery"/>
     </sheetNames>
     <definedNames>
+      <definedName name="REFA"/>
+      <definedName name="REFP"/>
       <definedName name="YQ"/>
-      <definedName name="ПРЕДСТАВЛЕНИЕССЫЛКИ"/>
-      <definedName name="РЕКВИЗИТССЫЛКИ"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -176,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -228,7 +252,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -422,20 +446,20 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
@@ -443,7 +467,7 @@
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -451,55 +475,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="str" cm="1">
+        <f t="array" ref="C5">[1]!REFP(C3)</f>
+        <v>Ромашка ООО</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="str" cm="1">
+        <f t="array" ref="C7">[1]!REFA(C3,"Код")</f>
+        <v>000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="str" cm="1">
+        <f t="array" ref="C9">[1]!REFA(C3,"ЮрФизЛицо")</f>
+        <v>e1c://filev/o/Tests/ib#e1cib/enum/ЮрФизЛицо.ЮрЛицо</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="str" cm="1">
+        <f t="array" ref="C11">[1]!YQ(C2,"выбрать первые 1 спр.наименование из справочник.пользователи как спр")</f>
+        <v>Пользователь1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="str">
-        <f>[1]!ПРЕДСТАВЛЕНИЕССЫЛКИ(C3)</f>
-        <v>Контрагент юр. лицо</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="str">
-        <f>[1]!РЕКВИЗИТССЫЛКИ(C3,"Код")</f>
-        <v>000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="str">
-        <f>[1]!РЕКВИЗИТССЫЛКИ(C3,"ЮрФизЛицо")</f>
-        <v>e1c://filev/o/Tests/ib#e1cib/enum/ЮрФизЛицо.ЮрЛицо</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="str">
-        <f>[1]!YQ(C2,"выбрать первые 1 спр.наименование из справочник.пользователи как спр")</f>
-        <v>Пользователь1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="str">
+      <c r="C13" t="str" cm="1">
         <f t="array" ref="C13:E17">[1]!YQ(C2,"выбрать первые 10 спр.наименование, спр.код, спр.ссылка из справочник.пользователи как спр")</f>
         <v>Пользователь1</v>
       </c>
@@ -510,7 +534,7 @@
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585f9</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C14" t="str">
         <v>Пользователь2</v>
       </c>
@@ -521,7 +545,7 @@
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585fa</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15" t="str">
         <v>Пользователь3</v>
       </c>
@@ -532,7 +556,7 @@
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585fb</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16" t="str">
         <v>Пользователь4</v>
       </c>
@@ -543,7 +567,7 @@
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585fc</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="str">
         <v>Пользователь5</v>
       </c>

--- a/Tests/Test.xlsx
+++ b/Tests/Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0098D654-17DD-43E8-800A-6471FFF61BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C211C22-22CD-4BA4-A91C-0B7A2321E15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>ib</t>
   </si>
@@ -62,25 +62,133 @@
     <t>e1c://filev/o/Tests/ib</t>
   </si>
   <si>
-    <t>Ссылка</t>
-  </si>
-  <si>
-    <t>Тест YQ одно значение</t>
-  </si>
-  <si>
-    <t>Тест YQ массив значений</t>
-  </si>
-  <si>
-    <t>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Контрагенты?ref=979a50ebf628462e11eedfb52fb803ac</t>
-  </si>
-  <si>
-    <t>Тест REFP</t>
-  </si>
-  <si>
-    <t>Тест REFA</t>
-  </si>
-  <si>
-    <t>Тест REFA перечисление</t>
+    <t>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=8ca0000d8843cd1b11dc8cfecc6a7df2</t>
+  </si>
+  <si>
+    <t>Кроссовки</t>
+  </si>
+  <si>
+    <t>000000024</t>
+  </si>
+  <si>
+    <t>Элемент справочника</t>
+  </si>
+  <si>
+    <t>e1c://filev/o/Tests/ib#e1cib/enum/ВидыТоваров.Товар</t>
+  </si>
+  <si>
+    <t>Администратор</t>
+  </si>
+  <si>
+    <t>Kros001</t>
+  </si>
+  <si>
+    <t>Пинетки</t>
+  </si>
+  <si>
+    <t>Pin23</t>
+  </si>
+  <si>
+    <t>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=8ca0000d8843cd1b11dc8cfecc6a7df3</t>
+  </si>
+  <si>
+    <t>Босоножки</t>
+  </si>
+  <si>
+    <t>Bos0009</t>
+  </si>
+  <si>
+    <t>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=8ca1000d8843cd1b11dc8eacd471d6c7</t>
+  </si>
+  <si>
+    <t>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Контрагенты?ref=a9c500055d49b45e11dbf348086715b0</t>
+  </si>
+  <si>
+    <t>Группа справочника</t>
+  </si>
+  <si>
+    <t>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b000055d49b45e11db8c51bbb079ae</t>
+  </si>
+  <si>
+    <t>Сапоги</t>
+  </si>
+  <si>
+    <t>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b000055d49b45e11db8c51bbb079af</t>
+  </si>
+  <si>
+    <t>ОБ-001</t>
+  </si>
+  <si>
+    <t>Туфли</t>
+  </si>
+  <si>
+    <t>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b000055d49b45e11db8e8bd1cb82af</t>
+  </si>
+  <si>
+    <t>ОБ-002</t>
+  </si>
+  <si>
+    <t>Тапочки</t>
+  </si>
+  <si>
+    <t>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b000055d49b45e11db90e17cd1a8f0</t>
+  </si>
+  <si>
+    <t>ОБ-008</t>
+  </si>
+  <si>
+    <t>Ботинки</t>
+  </si>
+  <si>
+    <t>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b000055d49b45e11db90eb5198ae43</t>
+  </si>
+  <si>
+    <t>ОБ-003</t>
+  </si>
+  <si>
+    <t>Сланцы</t>
+  </si>
+  <si>
+    <t>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b200055d49b45e11db966b094c0e4a</t>
+  </si>
+  <si>
+    <t>ОБ-00055</t>
+  </si>
+  <si>
+    <t>Валенки</t>
+  </si>
+  <si>
+    <t>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b200055d49b45e11db9b1315c596e3</t>
+  </si>
+  <si>
+    <t>ОБ-00100</t>
+  </si>
+  <si>
+    <t>Товар</t>
+  </si>
+  <si>
+    <t>REFP ссылка</t>
+  </si>
+  <si>
+    <t>REFP перечисление</t>
+  </si>
+  <si>
+    <t>REFA простое значение</t>
+  </si>
+  <si>
+    <t>REFA ссылка</t>
+  </si>
+  <si>
+    <t>REFA перечисление</t>
+  </si>
+  <si>
+    <t>YQ без параметров, результат одиночный</t>
+  </si>
+  <si>
+    <t>YQ с одним параметром,  результат массив</t>
+  </si>
+  <si>
+    <t>YQ с двумя параметрами, результат массив</t>
   </si>
 </sst>
 </file>
@@ -117,13 +225,177 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -455,130 +727,477 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="str">
+        <f>IF(COUNTIF(B6:B33,"FAIL")=0,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="str" cm="1">
+        <f t="array" ref="B6">IF(MAX(IF(D6:E7&lt;&gt;P6:Q7,1,0))=0,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="str" cm="1">
+        <f t="array" ref="D6">[1]!REFP(D3)</f>
+        <v>Кроссовки</v>
+      </c>
+      <c r="P6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="str" cm="1">
+        <f t="array" ref="B8">IF(MAX(IF(D8:E11&lt;&gt;P8:Q11,1,0))=0,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="str" cm="1">
+        <f t="array" ref="D8">[1]!REFP(D14)</f>
+        <v>Товар</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="str" cm="1">
+        <f t="array" ref="B10">IF(MAX(IF(D10:E11&lt;&gt;P10:Q11,1,0))=0,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="str" cm="1">
+        <f t="array" ref="D10">[1]!REFA(D3,"Код")</f>
+        <v>000000024</v>
+      </c>
+      <c r="P10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="str" cm="1">
+        <f t="array" ref="B12">IF(MAX(IF(D12:E13&lt;&gt;P12:Q13,1,0))=0,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="str" cm="1">
+        <f t="array" ref="D12">[1]!REFA(D3,"Поставщик")</f>
+        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Контрагенты?ref=a9c500055d49b45e11dbf348086715b0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="str" cm="1">
+        <f t="array" ref="B14">IF(MAX(IF(D14:E15&lt;&gt;P14:Q15,1,0))=0,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="str" cm="1">
+        <f t="array" ref="D14">[1]!REFA(D3,"Вид")</f>
+        <v>e1c://filev/o/Tests/ib#e1cib/enum/ВидыТоваров.Товар</v>
+      </c>
+      <c r="P14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="str" cm="1">
-        <f t="array" ref="C5">[1]!REFP(C3)</f>
-        <v>Ромашка ООО</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" t="str" cm="1">
+        <f t="array" ref="B16">IF(MAX(IF(D16:E17&lt;&gt;P16:Q17,1,0))=0,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="str" cm="1">
+        <f t="array" ref="D16">[1]!YQ(D2,"выбрать первые 1 спр.наименование из справочник.пользователи как спр")</f>
+        <v>Администратор</v>
+      </c>
+      <c r="P16" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="str" cm="1">
-        <f t="array" ref="C7">[1]!REFA(C3,"Код")</f>
-        <v>000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" t="str" cm="1">
+        <f t="array" ref="B18">IF(MAX(IF(D18:G27&lt;&gt;P18:S27,1,0))=0,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="str" cm="1">
+        <f t="array" ref="D18:F26">[1]!YQ(D2,"выбрать спр.наименование, спр.ссылка, спр.артикул из справочник.Товары как спр где спр.родитель = &amp;Группа","Группа",D4)</f>
+        <v>Сапоги</v>
+      </c>
+      <c r="E18" t="str">
+        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b000055d49b45e11db8c51bbb079af</v>
+      </c>
+      <c r="F18" t="str">
+        <v>ОБ-001</v>
+      </c>
+      <c r="P18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" t="str">
+        <v>Туфли</v>
+      </c>
+      <c r="E19" t="str">
+        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b000055d49b45e11db8e8bd1cb82af</v>
+      </c>
+      <c r="F19" t="str">
+        <v>ОБ-002</v>
+      </c>
+      <c r="P19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" t="str">
+        <v>Тапочки</v>
+      </c>
+      <c r="E20" t="str">
+        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b000055d49b45e11db90e17cd1a8f0</v>
+      </c>
+      <c r="F20" t="str">
+        <v>ОБ-008</v>
+      </c>
+      <c r="P20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>25</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" t="str">
+        <v>Ботинки</v>
+      </c>
+      <c r="E21" t="str">
+        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b000055d49b45e11db90eb5198ae43</v>
+      </c>
+      <c r="F21" t="str">
+        <v>ОБ-003</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" t="str">
+        <v>Сланцы</v>
+      </c>
+      <c r="E22" t="str">
+        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b200055d49b45e11db966b094c0e4a</v>
+      </c>
+      <c r="F22" t="str">
+        <v>ОБ-00055</v>
+      </c>
+      <c r="P22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" t="str">
+        <v>Валенки</v>
+      </c>
+      <c r="E23" t="str">
+        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b200055d49b45e11db9b1315c596e3</v>
+      </c>
+      <c r="F23" t="str">
+        <v>ОБ-00100</v>
+      </c>
+      <c r="P23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" t="str">
+        <v>Кроссовки</v>
+      </c>
+      <c r="E24" t="str">
+        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=8ca0000d8843cd1b11dc8cfecc6a7df2</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Kros001</v>
+      </c>
+      <c r="P24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="str" cm="1">
-        <f t="array" ref="C9">[1]!REFA(C3,"ЮрФизЛицо")</f>
-        <v>e1c://filev/o/Tests/ib#e1cib/enum/ЮрФизЛицо.ЮрЛицо</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" t="str">
+        <v>Пинетки</v>
+      </c>
+      <c r="E25" t="str">
+        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=8ca0000d8843cd1b11dc8cfecc6a7df3</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Pin23</v>
+      </c>
+      <c r="P25" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" t="str">
+        <v>Босоножки</v>
+      </c>
+      <c r="E26" t="str">
+        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=8ca1000d8843cd1b11dc8eacd471d6c7</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Bos0009</v>
+      </c>
+      <c r="P26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" t="str" cm="1">
+        <f t="array" ref="B28">IF(MAX(IF(D28:F31&lt;&gt;P28:R31,1,0))=0,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="str" cm="1">
+        <f t="array" ref="D28:E30">[1]!YQ(D2,"ВЫБРАТЬ ПРЕДСТАВЛЕНИЕ(Регистр.Товар) КАК ТоварПредставление, Регистр.КоличествоОстаток КАК КоличествоОстаток ИЗ РегистрНакопления.ТоварныеЗапасы.Остатки(, Товар В ИЕРАРХИИ (&amp;Группа) и Товар.Поставщик.Наименование = &amp;Наименование) КАК Регистр","Группа",D4,"Наименование","Корнет ЗАО")</f>
+        <v>Кроссовки</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="P28" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="str" cm="1">
-        <f t="array" ref="C11">[1]!YQ(C2,"выбрать первые 1 спр.наименование из справочник.пользователи как спр")</f>
-        <v>Пользователь1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="str" cm="1">
-        <f t="array" ref="C13:E17">[1]!YQ(C2,"выбрать первые 10 спр.наименование, спр.код, спр.ссылка из справочник.пользователи как спр")</f>
-        <v>Пользователь1</v>
-      </c>
-      <c r="D13" t="str">
-        <v>000000001</v>
-      </c>
-      <c r="E13" t="str">
-        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585f9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="str">
-        <v>Пользователь2</v>
-      </c>
-      <c r="D14" t="str">
-        <v>000000002</v>
-      </c>
-      <c r="E14" t="str">
-        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585fa</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="str">
-        <v>Пользователь3</v>
-      </c>
-      <c r="D15" t="str">
-        <v>000000003</v>
-      </c>
-      <c r="E15" t="str">
-        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585fb</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="str">
-        <v>Пользователь4</v>
-      </c>
-      <c r="D16" t="str">
-        <v>000000004</v>
-      </c>
-      <c r="E16" t="str">
-        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585fc</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="str">
-        <v>Пользователь5</v>
-      </c>
-      <c r="D17" t="str">
-        <v>000000005</v>
-      </c>
-      <c r="E17" t="str">
-        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Пользователи?ref=979a50ebf628462e11eedc7e898585fd</v>
+      <c r="Q28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D29" t="str">
+        <v>Туфли</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="P29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D30" t="str">
+        <v>Тапочки</v>
+      </c>
+      <c r="E30">
+        <v>17</v>
+      </c>
+      <c r="P30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B8">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Tests/Test.xlsx
+++ b/Tests/Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C211C22-22CD-4BA4-A91C-0B7A2321E15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FD9ECC-1882-4608-8080-C47ACBF22747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>ib</t>
   </si>
@@ -189,14 +189,71 @@
   </si>
   <si>
     <t>YQ с двумя параметрами, результат массив</t>
+  </si>
+  <si>
+    <t>Общий результат</t>
+  </si>
+  <si>
+    <t>Горизонтальный массив простых значений</t>
+  </si>
+  <si>
+    <t>Вертикальный массив ссылок</t>
+  </si>
+  <si>
+    <t>Таблица значений</t>
+  </si>
+  <si>
+    <t>НомерСтроки</t>
+  </si>
+  <si>
+    <t>Ссылка</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Новые</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>БотинкиБотинкиБотинкиБотинкиБотинкиБотинкиБотинки</t>
+  </si>
+  <si>
+    <t>Данные</t>
+  </si>
+  <si>
+    <t>YQ с параметром-таблицей значений, результат массив</t>
+  </si>
+  <si>
+    <t>YQ с параметром-вертикальным массивом ссылок,  результат массив</t>
+  </si>
+  <si>
+    <t>YQ с параметром-горизонтальным массивом простых значений,  результат массив</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -225,16 +282,280 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -727,470 +1048,885 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B2:R30"/>
+  <dimension ref="A2:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" t="str">
-        <f>IF(COUNTIF(B6:B33,"FAIL")=0,"PASS","FAIL")</f>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2">IF(AND(COUNTIF(B21:B100,"FAIL")=0,COUNT(IF(ISERROR(B21:B100),1,""))=0),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+    <row r="7" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+    <row r="8" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" t="str" cm="1">
-        <f t="array" ref="B6">IF(MAX(IF(D6:E7&lt;&gt;P6:Q7,1,0))=0,"PASS","FAIL")</f>
+    <row r="9" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>1.2345600000000001</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>44593.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="str" cm="1">
+        <f t="array" ref="B21">IFERROR(IF(MAX(IF(D21:E22&lt;&gt;P21:Q22,1,0))=0,"PASS","FAIL"),"FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="str" cm="1">
-        <f t="array" ref="D6">[1]!REFP(D3)</f>
+      <c r="D21" t="str" cm="1">
+        <f t="array" ref="D21">[1]!REFP(D7)</f>
         <v>Кроссовки</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" t="str" cm="1">
-        <f t="array" ref="B8">IF(MAX(IF(D8:E11&lt;&gt;P8:Q11,1,0))=0,"PASS","FAIL")</f>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="str" cm="1">
+        <f t="array" ref="B23">IFERROR(IF(MAX(IF(D23:E24&lt;&gt;P23:Q24,1,0))=0,"PASS","FAIL"),"FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="str" cm="1">
-        <f t="array" ref="D8">[1]!REFP(D14)</f>
+      <c r="D23" t="str" cm="1">
+        <f t="array" ref="D23">[1]!REFP(D29)</f>
         <v>Товар</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" t="str" cm="1">
-        <f t="array" ref="B10">IF(MAX(IF(D10:E11&lt;&gt;P10:Q11,1,0))=0,"PASS","FAIL")</f>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="str" cm="1">
+        <f t="array" ref="B25">IFERROR(IF(MAX(IF(D25:E26&lt;&gt;P25:Q26,1,0))=0,"PASS","FAIL"),"FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="str" cm="1">
-        <f t="array" ref="D10">[1]!REFA(D3,"Код")</f>
+      <c r="D25" t="str" cm="1">
+        <f t="array" ref="D25">[1]!REFA(D7,"Код")</f>
         <v>000000024</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" t="str" cm="1">
-        <f t="array" ref="B12">IF(MAX(IF(D12:E13&lt;&gt;P12:Q13,1,0))=0,"PASS","FAIL")</f>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="str" cm="1">
+        <f t="array" ref="B27">IFERROR(IF(MAX(IF(D27:E28&lt;&gt;P27:Q28,1,0))=0,"PASS","FAIL"),"FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="str" cm="1">
-        <f t="array" ref="D12">[1]!REFA(D3,"Поставщик")</f>
+      <c r="D27" t="str" cm="1">
+        <f t="array" ref="D27">[1]!REFA(D7,"Поставщик")</f>
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Контрагенты?ref=a9c500055d49b45e11dbf348086715b0</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" t="str" cm="1">
-        <f t="array" ref="B14">IF(MAX(IF(D14:E15&lt;&gt;P14:Q15,1,0))=0,"PASS","FAIL")</f>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="str" cm="1">
+        <f t="array" ref="B29">IFERROR(IF(MAX(IF(D29:E30&lt;&gt;P29:Q30,1,0))=0,"PASS","FAIL"),"FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="str" cm="1">
-        <f t="array" ref="D14">[1]!REFA(D3,"Вид")</f>
+      <c r="D29" t="str" cm="1">
+        <f t="array" ref="D29">[1]!REFA(D7,"Вид")</f>
         <v>e1c://filev/o/Tests/ib#e1cib/enum/ВидыТоваров.Товар</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" t="str" cm="1">
-        <f t="array" ref="B16">IF(MAX(IF(D16:E17&lt;&gt;P16:Q17,1,0))=0,"PASS","FAIL")</f>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="str" cm="1">
+        <f t="array" ref="B31">IFERROR(IF(MAX(IF(D31:E32&lt;&gt;P31:Q32,1,0))=0,"PASS","FAIL"),"FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="str" cm="1">
-        <f t="array" ref="D16">[1]!YQ(D2,"выбрать первые 1 спр.наименование из справочник.пользователи как спр")</f>
+      <c r="D31" t="str" cm="1">
+        <f t="array" ref="D31">[1]!YQ(D6,"выбрать первые 1 спр.наименование из справочник.пользователи как спр")</f>
         <v>Администратор</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" t="str" cm="1">
-        <f t="array" ref="B18">IF(MAX(IF(D18:G27&lt;&gt;P18:S27,1,0))=0,"PASS","FAIL")</f>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" t="str" cm="1">
+        <f t="array" ref="B33">IFERROR(IF(MAX(IF(D33:G42&lt;&gt;P33:S42,1,0))=0,"PASS","FAIL"),"FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="str" cm="1">
-        <f t="array" ref="D18:F26">[1]!YQ(D2,"выбрать спр.наименование, спр.ссылка, спр.артикул из справочник.Товары как спр где спр.родитель = &amp;Группа","Группа",D4)</f>
+      <c r="D33" t="str" cm="1">
+        <f t="array" ref="D33:F41">[1]!YQ(D6,"выбрать спр.наименование, спр.ссылка, спр.артикул из справочник.Товары как спр где спр.родитель = &amp;Группа","Группа",D8)</f>
         <v>Сапоги</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E33" t="str">
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b000055d49b45e11db8c51bbb079af</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F33" t="str">
         <v>ОБ-001</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P33" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q33" t="s">
         <v>19</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" t="str">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" t="str">
         <v>Туфли</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E34" t="str">
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b000055d49b45e11db8e8bd1cb82af</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F34" t="str">
         <v>ОБ-002</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P34" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q34" t="s">
         <v>22</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" t="str">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" t="str">
         <v>Тапочки</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E35" t="str">
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b000055d49b45e11db90e17cd1a8f0</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F35" t="str">
         <v>ОБ-008</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P35" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q35" t="s">
         <v>25</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" t="str">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" t="str">
         <v>Ботинки</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E36" t="str">
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b000055d49b45e11db90eb5198ae43</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F36" t="str">
         <v>ОБ-003</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P36" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q36" t="s">
         <v>28</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" t="str">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="D37" t="str">
         <v>Сланцы</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E37" t="str">
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b200055d49b45e11db966b094c0e4a</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F37" t="str">
         <v>ОБ-00055</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P37" t="s">
         <v>30</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q37" t="s">
         <v>31</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" t="str">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" t="str">
         <v>Валенки</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E38" t="str">
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b200055d49b45e11db9b1315c596e3</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F38" t="str">
         <v>ОБ-00100</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P38" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q38" t="s">
         <v>34</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" t="str">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" t="str">
         <v>Кроссовки</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E39" t="str">
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=8ca0000d8843cd1b11dc8cfecc6a7df2</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F39" t="str">
         <v>Kros001</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P39" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q39" t="s">
         <v>2</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" t="str">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" t="str">
         <v>Пинетки</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E40" t="str">
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=8ca0000d8843cd1b11dc8cfecc6a7df3</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F40" t="str">
         <v>Pin23</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P40" t="s">
         <v>9</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q40" t="s">
         <v>11</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" t="str">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="D41" t="str">
         <v>Босоножки</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E41" t="str">
         <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=8ca1000d8843cd1b11dc8eacd471d6c7</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F41" t="str">
         <v>Bos0009</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P41" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q41" t="s">
         <v>14</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" t="str" cm="1">
-        <f t="array" ref="B28">IF(MAX(IF(D28:F31&lt;&gt;P28:R31,1,0))=0,"PASS","FAIL")</f>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43" t="str" cm="1">
+        <f t="array" ref="B43">IFERROR(IF(MAX(IF(D43:F46&lt;&gt;P43:R46,1,0))=0,"PASS","FAIL"),"FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D28" t="str" cm="1">
-        <f t="array" ref="D28:E30">[1]!YQ(D2,"ВЫБРАТЬ ПРЕДСТАВЛЕНИЕ(Регистр.Товар) КАК ТоварПредставление, Регистр.КоличествоОстаток КАК КоличествоОстаток ИЗ РегистрНакопления.ТоварныеЗапасы.Остатки(, Товар В ИЕРАРХИИ (&amp;Группа) и Товар.Поставщик.Наименование = &amp;Наименование) КАК Регистр","Группа",D4,"Наименование","Корнет ЗАО")</f>
+      <c r="D43" t="str" cm="1">
+        <f t="array" ref="D43:E45">[1]!YQ(D6,"ВЫБРАТЬ ПРЕДСТАВЛЕНИЕ(Регистр.Товар) КАК ТоварПредставление, Регистр.КоличествоОстаток КАК КоличествоОстаток ИЗ РегистрНакопления.ТоварныеЗапасы.Остатки(, Товар В ИЕРАРХИИ (&amp;Группа) и Товар.Поставщик.Наименование = &amp;Наименование) КАК Регистр","Группа",D8,"Наименование","Корнет ЗАО")</f>
         <v>Кроссовки</v>
       </c>
-      <c r="E28">
+      <c r="E43">
         <v>20</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P43" t="s">
         <v>3</v>
       </c>
-      <c r="Q28">
+      <c r="Q43">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D29" t="str">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D44" t="str">
         <v>Туфли</v>
       </c>
-      <c r="E29">
+      <c r="E44">
         <v>10</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P44" t="s">
         <v>21</v>
       </c>
-      <c r="Q29">
+      <c r="Q44">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D30" t="str">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D45" t="str">
         <v>Тапочки</v>
       </c>
-      <c r="E30">
+      <c r="E45">
         <v>17</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P45" t="s">
         <v>24</v>
       </c>
-      <c r="Q30">
+      <c r="Q45">
         <v>17</v>
       </c>
     </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47" t="str" cm="1">
+        <f t="array" ref="B47">IFERROR(IF(MAX(IF(D47:F50&lt;&gt;P47:R50,1,0))=0,"PASS","FAIL"),"FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="str" cm="1">
+        <f t="array" ref="D47:E49">[1]!YQ(D6,"выбрать спр.наименование, спр.артикул из справочник.товары как спр где спр.артикул в (&amp;Массив)","Массив",D10:F10)</f>
+        <v>Ботинки</v>
+      </c>
+      <c r="E47" t="str">
+        <v>ОБ-003</v>
+      </c>
+      <c r="P47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D48" t="str">
+        <v>Валенки</v>
+      </c>
+      <c r="E48" t="str">
+        <v>ОБ-00100</v>
+      </c>
+      <c r="P48" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D49" t="str">
+        <v>Босоножки</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Bos0009</v>
+      </c>
+      <c r="P49" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="str" cm="1">
+        <f t="array" ref="B51">IFERROR(IF(MAX(IF(D51:E54&lt;&gt;P51:Q54,1,0))=0,"PASS","FAIL"),"FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" t="str" cm="1">
+        <f t="array" ref="D51:D53">[1]!YQ(D6,"выбрать спр.наименование из справочник.товары как спр где спр.ссылка в (&amp;Массив)","Массив",D12:D14)</f>
+        <v>Ботинки</v>
+      </c>
+      <c r="P51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D52" t="str">
+        <v>Валенки</v>
+      </c>
+      <c r="P52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D53" t="str">
+        <v>Босоножки</v>
+      </c>
+      <c r="P53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55" t="str" cm="1">
+        <f t="array" ref="B55">IFERROR(IF(MAX(IF(D55:J58&lt;&gt;P55:V58,1,0))=0,"PASS","FAIL"),"FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" cm="1">
+        <f t="array" ref="D55:I57">[1]!YQ(D6,"выбрать * из ТаблицаОбувь как Т","ТаблицаОбувь",D16:I19)</f>
+        <v>1</v>
+      </c>
+      <c r="E55" t="str">
+        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b000055d49b45e11db90eb5198ae43</v>
+      </c>
+      <c r="F55" t="str">
+        <v>БотинкиБотинкиБотинкиБотинкиБотинкиБотинкиБотинки</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5">
+        <v>44197</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>28</v>
+      </c>
+      <c r="R55" t="s">
+        <v>55</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55" t="b">
+        <v>1</v>
+      </c>
+      <c r="U55" s="5">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="str">
+        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=a9b200055d49b45e11db9b1315c596e3</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Валенки</v>
+      </c>
+      <c r="G56">
+        <v>1.2345600000000001</v>
+      </c>
+      <c r="H56" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
+        <v>44593.5</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>34</v>
+      </c>
+      <c r="R56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S56">
+        <v>1.2345600000000001</v>
+      </c>
+      <c r="T56" t="b">
+        <v>0</v>
+      </c>
+      <c r="U56" s="5">
+        <v>44593.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="str">
+        <v>e1c://filev/o/Tests/ib#e1cib/data/Справочник.Товары?ref=8ca1000d8843cd1b11dc8eacd471d6c7</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Босоножки</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5">
+        <v>45291</v>
+      </c>
+      <c r="P57">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>14</v>
+      </c>
+      <c r="R57" t="s">
+        <v>12</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+      <c r="T57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U57" s="5">
+        <v>45291</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B8">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+  <conditionalFormatting sqref="B22">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+  <conditionalFormatting sqref="B55">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+  <conditionalFormatting sqref="B51">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+  <conditionalFormatting sqref="B47">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+  <conditionalFormatting sqref="B43">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+  <conditionalFormatting sqref="B33">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
+  <conditionalFormatting sqref="B31">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
